--- a/5-Analysis_and_Reporting/Data/analysis.xlsx
+++ b/5-Analysis_and_Reporting/Data/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2c62ebe3f1174e2/Documents/Resume/Interview Info/Take Homes/Ignite Reading/Project/student-analysis/5-Analysis_and_Reporting/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{CC73A33A-EE19-46B5-ACE8-ABD44763FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00210A58-857B-4BDD-9DA9-D31B27129D48}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="8_{CC73A33A-EE19-46B5-ACE8-ABD44763FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{940F13B7-8EAB-4E64-9266-857B2BC458DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{589B1439-A4DC-4F0B-9B3E-F4359DC0190E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{589B1439-A4DC-4F0B-9B3E-F4359DC0190E}"/>
   </bookViews>
   <sheets>
     <sheet name="edit" sheetId="18" state="hidden" r:id="rId1"/>
@@ -18,31 +18,33 @@
     <sheet name="orf_vs_wrf-correlation" sheetId="20" state="hidden" r:id="rId3"/>
     <sheet name="regression_output_lnf-psf" sheetId="15" r:id="rId4"/>
     <sheet name="regression_output_nwf-cls_orf" sheetId="21" r:id="rId5"/>
-    <sheet name="merged_school_name" sheetId="2" r:id="rId6"/>
-    <sheet name="charts" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId6"/>
+    <sheet name="merged_school_name" sheetId="2" r:id="rId7"/>
+    <sheet name="charts" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edit!$A$1:$B$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">merged_school_name!$A$1:$L$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">merged_school_name!$A$1:$L$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'regression_output_nwf-cls_orf'!$A$1:$B$195</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">merged_school_name!$J$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">merged_school_name!$J$2:$J$201</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">merged_school_name!$F$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">merged_school_name!$F$2:$F$201</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">merged_school_name!$L$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">merged_school_name!$L$2:$L$201</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">merged_school_name!$L$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">merged_school_name!$L$2:$L$201</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">merged_school_name!$F$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">merged_school_name!$F$2:$F$201</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">merged_school_name!$G$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">merged_school_name!$G$2:$G$201</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">merged_school_name!$H$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">merged_school_name!$H$2:$H$201</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">merged_school_name!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">merged_school_name!$G$2:$G$201</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">merged_school_name!$H$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">merged_school_name!$H$2:$H$201</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">merged_school_name!$J$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">merged_school_name!$J$2:$J$201</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">merged_school_name!$K$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">merged_school_name!$K$2:$K$201</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">merged_school_name!$I$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">merged_school_name!$I$2:$I$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="151" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="522">
   <si>
     <t>school_name</t>
   </si>
@@ -1593,6 +1595,42 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of student_id</t>
+  </si>
+  <si>
+    <t>Average of orf-accu</t>
+  </si>
+  <si>
+    <t>Average of orf</t>
+  </si>
+  <si>
+    <t>Average of wrf</t>
+  </si>
+  <si>
+    <t>Average of nwf-wrc</t>
+  </si>
+  <si>
+    <t>Average of nwf-cls</t>
+  </si>
+  <si>
+    <t>Average of psf</t>
+  </si>
+  <si>
+    <t>Average of lnf</t>
+  </si>
+  <si>
+    <t>School Name</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1667,21 +1705,26 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3191,42 +3234,45 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>Letter Naming Fluency</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
+        <cx:txData>
+          <cx:v>Letter Naming Fluency</cx:v>
+        </cx:txData>
       </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Letter Naming Fluency</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{02DE216D-A0B8-466B-A38F-3E8E059418B9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>lnf</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3255,7 +3301,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3293,7 +3339,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{76BA3EB7-FE7A-47C2-A6DB-ABDC3F4ED0CB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>psf</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3322,7 +3368,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3360,7 +3406,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{0D575CD5-1D6D-4006-B1F9-CCAE1A9ADD94}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>nwf-cls</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3465,7 +3511,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3503,7 +3549,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{B3689784-DE08-4292-95BD-E9740BA61517}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>wrf</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3599,7 +3645,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3637,7 +3683,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{A60142EE-65E0-4586-A885-A94C89BDD73D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>orf-accu</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8647,6 +8693,2974 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="allur" refreshedDate="45342.299006250003" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="200" xr:uid="{7223D883-29FB-4A12-90CF-A86744F0F9D4}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L201" sheet="merged_school_name"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="school_name" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Unknown"/>
+        <s v="school al"/>
+        <s v="school ai"/>
+        <s v="school ag"/>
+        <s v="school af"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="student_last_name" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="434567788" maxValue="3036230609"/>
+    </cacheField>
+    <cacheField name="student_first_name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="student_id" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="230973919" maxValue="87100000000"/>
+    </cacheField>
+    <cacheField name="grade" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="lnf" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
+    </cacheField>
+    <cacheField name="psf" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="74"/>
+    </cacheField>
+    <cacheField name="nwf-cls" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="174"/>
+    </cacheField>
+    <cacheField name="nwf-wrc" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="58"/>
+    </cacheField>
+    <cacheField name="wrf" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="70"/>
+    </cacheField>
+    <cacheField name="orf" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="122"/>
+    </cacheField>
+    <cacheField name="orf-accu" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="200">
+  <r>
+    <x v="0"/>
+    <s v="1c98119233"/>
+    <s v="Victory"/>
+    <s v="8b431a74c9"/>
+    <s v="Grade 1"/>
+    <n v="20"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="55a42dd818"/>
+    <s v="Jasmine"/>
+    <s v="e5cdad348f"/>
+    <s v="Grade 1"/>
+    <n v="39"/>
+    <n v="42"/>
+    <n v="21"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3c6a7f8fb5"/>
+    <s v="Deutchson"/>
+    <s v="e9dc7955cd"/>
+    <s v="Grade 1"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="52fd0d24ca"/>
+    <s v="Jaharis"/>
+    <s v="b1938523ae"/>
+    <s v="Grade 1"/>
+    <n v="52"/>
+    <n v="36"/>
+    <n v="29"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="9950fd2c5b"/>
+    <s v="Deborah"/>
+    <s v="fd66814472"/>
+    <s v="Grade 1"/>
+    <n v="19"/>
+    <n v="26"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="bab3c7d19a"/>
+    <s v="Mathew"/>
+    <s v="66c6b3ce93"/>
+    <s v="Grade 1"/>
+    <n v="54"/>
+    <n v="31"/>
+    <n v="74"/>
+    <n v="21"/>
+    <n v="41"/>
+    <n v="52"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b4c9c5aa2c"/>
+    <s v="Nathan"/>
+    <s v="b8b836a0a3"/>
+    <s v="Grade 1"/>
+    <n v="23"/>
+    <n v="55"/>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3ce9aefcb8"/>
+    <s v="Gabriella"/>
+    <s v="f8bfea186b"/>
+    <s v="Grade 1"/>
+    <n v="40"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="11"/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="338699dc58"/>
+    <s v="Thayla"/>
+    <s v="f1215d2646"/>
+    <s v="Grade 1"/>
+    <n v="50"/>
+    <n v="31"/>
+    <n v="47"/>
+    <n v="14"/>
+    <n v="19"/>
+    <n v="22"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="8658ebf1ed"/>
+    <s v="Harlem"/>
+    <s v="a818de2156"/>
+    <s v="Grade 1"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="fd49ab8b24"/>
+    <s v="Yves"/>
+    <s v="b074710a79"/>
+    <s v="Grade 1"/>
+    <n v="43"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="e4378e9c55"/>
+    <s v="Nyla"/>
+    <s v="94f32593c6"/>
+    <s v="Grade 1"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="20"/>
+    <n v="5"/>
+    <s v=" "/>
+    <n v="2"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="655820315c"/>
+    <s v="Caleb "/>
+    <s v="c47e91c20b"/>
+    <s v="Grade 1"/>
+    <n v="83"/>
+    <n v="48"/>
+    <n v="44"/>
+    <n v="11"/>
+    <n v="29"/>
+    <n v="35"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="ce5f866533"/>
+    <s v="Carmella"/>
+    <s v="6773a24c45"/>
+    <s v="Grade 1"/>
+    <n v="26"/>
+    <n v="33"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3495e75785"/>
+    <s v="Ryder"/>
+    <s v="9207ed5416"/>
+    <s v="Grade 1"/>
+    <n v="18"/>
+    <n v="24"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="11ba7fdff1"/>
+    <s v="Benjamin"/>
+    <s v="18193ede23"/>
+    <s v="Grade 1"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="434567788"/>
+    <s v="Brayden"/>
+    <s v="94f46d8156"/>
+    <s v="Grade 1"/>
+    <n v="34"/>
+    <n v="15"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="9ff5b8da8a"/>
+    <s v="Alex"/>
+    <s v="76b0b48585"/>
+    <s v="Grade 1"/>
+    <n v="17"/>
+    <n v="25"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3036230609"/>
+    <s v="Bella"/>
+    <s v="898ade2a3e"/>
+    <s v="Grade 1"/>
+    <n v="30"/>
+    <n v="35"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="a0e12afb89"/>
+    <s v="Aiden"/>
+    <s v="acf455724b"/>
+    <s v="Grade 1"/>
+    <n v="19"/>
+    <n v="8"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v=" "/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3028fe69be"/>
+    <s v="Niah"/>
+    <s v="bb7dd8ee53"/>
+    <s v="Grade 1"/>
+    <n v="36"/>
+    <n v="64"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="0a2d8fcb45"/>
+    <s v="Adriel"/>
+    <s v="6aafc929d6"/>
+    <s v="Grade 1"/>
+    <n v="25"/>
+    <n v="29"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6687d4738f"/>
+    <s v="Julia"/>
+    <s v="6354b3b3b6"/>
+    <s v="Grade 1"/>
+    <n v="23"/>
+    <n v="50"/>
+    <n v="30"/>
+    <n v="8"/>
+    <n v="0"/>
+    <s v=" "/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3c8a67d409"/>
+    <s v="Meilani"/>
+    <s v="223cce975f"/>
+    <s v="Grade 1"/>
+    <n v="18"/>
+    <n v="39"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v=" "/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="97c4425f18"/>
+    <s v="Christelle"/>
+    <s v="02d98d924d"/>
+    <s v="Grade 1"/>
+    <n v="40"/>
+    <n v="45"/>
+    <n v="18"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="499e7350be"/>
+    <s v="Luany"/>
+    <s v="f4b947940a"/>
+    <s v="Grade 1"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d414eeee4c"/>
+    <s v="Maiza"/>
+    <s v="c385ad006f"/>
+    <s v="Grade 1"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="16"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6a6c396e58"/>
+    <s v="An"/>
+    <n v="87100000000"/>
+    <s v="Grade 1"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="2338ba80b9"/>
+    <s v="Maliyah"/>
+    <s v="c541ae4c26"/>
+    <s v="Grade 1"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="7f36df0b52"/>
+    <s v="Yisrael"/>
+    <s v="a09526f652"/>
+    <s v="Grade 1"/>
+    <n v="28"/>
+    <n v="34"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="2ec7da3f6e"/>
+    <s v="Karic"/>
+    <s v="a88483fe0c"/>
+    <s v="Grade 1"/>
+    <n v="36"/>
+    <n v="43"/>
+    <n v="31"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6e628f7b1d"/>
+    <s v="Andrew "/>
+    <s v="64bdae03a8"/>
+    <s v="Grade 1"/>
+    <n v="49"/>
+    <n v="14"/>
+    <n v="13"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="2"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="78a1a1dae4"/>
+    <s v="Roselande"/>
+    <s v="2fab97f85e"/>
+    <s v="Grade 1"/>
+    <n v="39"/>
+    <n v="45"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="213c4d2db0"/>
+    <s v="Adele"/>
+    <s v="33d553cc36"/>
+    <s v="Grade 1"/>
+    <n v="39"/>
+    <n v="35"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="f77e7de451"/>
+    <s v="Judith"/>
+    <s v="945c49d347"/>
+    <s v="Grade 1"/>
+    <n v="32"/>
+    <n v="30"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="7b43e986b7"/>
+    <s v="Noah"/>
+    <s v="970ec51fb5"/>
+    <s v="Grade 1"/>
+    <n v="30"/>
+    <n v="50"/>
+    <n v="29"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="5ace19eb8a"/>
+    <s v="Brian"/>
+    <s v="dcbb51409d"/>
+    <s v="Grade 1"/>
+    <n v="36"/>
+    <n v="53"/>
+    <n v="45"/>
+    <n v="14"/>
+    <n v="10"/>
+    <n v="5"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="7283463fd9"/>
+    <s v="Ariella"/>
+    <s v="97e1d91e7d"/>
+    <s v="Grade 1"/>
+    <n v="51"/>
+    <n v="35"/>
+    <n v="94"/>
+    <n v="25"/>
+    <n v="56"/>
+    <n v="83"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="296b63663c"/>
+    <s v="Damon"/>
+    <s v="e1ba5800c6"/>
+    <s v="Grade 1"/>
+    <n v="26"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="4c3959a043"/>
+    <s v="Caleb"/>
+    <s v="3b756f2b2b"/>
+    <s v="Grade 1"/>
+    <n v="46"/>
+    <n v="42"/>
+    <n v="25"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="683313d690"/>
+    <s v="Milan"/>
+    <s v="2042d27ae2"/>
+    <s v="Grade 1"/>
+    <n v="39"/>
+    <n v="36"/>
+    <n v="18"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="69dd9e5bb3"/>
+    <s v="Maliah"/>
+    <s v="48c704a71f"/>
+    <s v="Grade 1"/>
+    <n v="21"/>
+    <n v="24"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="10aa8ac65e"/>
+    <s v="Chloe"/>
+    <s v="62198fa3b9"/>
+    <s v="Grade 1"/>
+    <n v="36"/>
+    <n v="37"/>
+    <n v="33"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="6"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="1c574b17ee"/>
+    <s v="Eli"/>
+    <s v="6a0725eba6"/>
+    <s v="Grade 1"/>
+    <n v="37"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="7e0b7a468d"/>
+    <s v="Zayn"/>
+    <s v="8ef6f53181"/>
+    <s v="Grade 1"/>
+    <n v="50"/>
+    <n v="25"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="8b81665c6c"/>
+    <s v="Jay'ceon"/>
+    <s v="ce526ef387"/>
+    <s v="Grade 1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="80b42b9b6c"/>
+    <s v="Gaetan"/>
+    <s v="48205107a8"/>
+    <s v="Grade 1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3c572f0710"/>
+    <s v="LindaMarie"/>
+    <s v="1dd5f940f6"/>
+    <s v="Grade 1"/>
+    <n v="26"/>
+    <n v="3"/>
+    <n v="24"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="7eda994956"/>
+    <s v="Skylar"/>
+    <s v="0ead7cc914"/>
+    <s v="Grade 1"/>
+    <n v="38"/>
+    <n v="33"/>
+    <n v="27"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="dfb29be7ef"/>
+    <s v="Carly"/>
+    <s v="0a0ca59a98"/>
+    <s v="Grade 1"/>
+    <n v="27"/>
+    <n v="22"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d982f029f5"/>
+    <s v="Aiden"/>
+    <s v="e9557d0c1e"/>
+    <s v="Grade 1"/>
+    <n v="27"/>
+    <n v="45"/>
+    <n v="26"/>
+    <n v="5"/>
+    <n v="0"/>
+    <s v=" "/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="56ec4fee9f"/>
+    <s v="Chrysnaelle"/>
+    <s v="b789ad737e"/>
+    <s v="Grade 1"/>
+    <n v="29"/>
+    <n v="7"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="af8875942f"/>
+    <s v="Miriam"/>
+    <s v="cc4a88aed0"/>
+    <s v="Grade 1"/>
+    <n v="40"/>
+    <n v="55"/>
+    <n v="28"/>
+    <n v="8"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6e8d8801f5"/>
+    <s v="Renzo"/>
+    <s v="9958482b81"/>
+    <s v="Grade 1"/>
+    <n v="57"/>
+    <n v="40"/>
+    <n v="44"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="72bc556112"/>
+    <s v="Lilah"/>
+    <s v="5eec9123c2"/>
+    <s v="Grade 1"/>
+    <n v="23"/>
+    <n v="21"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="e3a83b6689"/>
+    <s v="Raisa"/>
+    <s v="037de233f4"/>
+    <s v="Grade 1"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="5f3c4da8d0"/>
+    <s v="Jonathan"/>
+    <s v="f219eb9488"/>
+    <s v="Grade 1"/>
+    <n v="64"/>
+    <n v="45"/>
+    <n v="62"/>
+    <n v="17"/>
+    <n v="30"/>
+    <n v="42"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="eba97121e0"/>
+    <s v="Maxwell"/>
+    <s v="f118e5211a"/>
+    <s v="Grade 1"/>
+    <n v="37"/>
+    <n v="42"/>
+    <n v="21"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="91f5c51e92"/>
+    <s v="Aundrea"/>
+    <s v="466a3cac53"/>
+    <s v="Grade 1"/>
+    <n v="48"/>
+    <n v="50"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="1f5f326705"/>
+    <s v="Gia Han"/>
+    <s v="2b6585fa82"/>
+    <s v="Grade 1"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="2"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="ad2c0f5775"/>
+    <s v="Armani"/>
+    <s v="b07627bcea"/>
+    <s v="Grade 1"/>
+    <n v="85"/>
+    <n v="43"/>
+    <n v="46"/>
+    <n v="11"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d41e3d0cd2"/>
+    <s v="Oliver"/>
+    <s v="33ca1d7247"/>
+    <s v="Grade 1"/>
+    <n v="45"/>
+    <n v="39"/>
+    <n v="38"/>
+    <n v="11"/>
+    <n v="15"/>
+    <n v="11"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3d7c3e417e"/>
+    <s v="Alyssah"/>
+    <s v="82d4d481a7"/>
+    <s v="Grade 1"/>
+    <n v="56"/>
+    <n v="4"/>
+    <n v="144"/>
+    <n v="40"/>
+    <s v=" "/>
+    <n v="38"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c048197480"/>
+    <s v="Alexander"/>
+    <s v="7351bbc371"/>
+    <s v="Grade 1"/>
+    <n v="11"/>
+    <n v="28"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v=" "/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3036230609"/>
+    <s v="Isaac"/>
+    <s v="082b161269"/>
+    <s v="Grade 1"/>
+    <n v="12"/>
+    <n v="30"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d4edc9b1a3"/>
+    <s v="Ibrahim"/>
+    <s v="64373b8be1"/>
+    <s v="Grade 1"/>
+    <n v="55"/>
+    <n v="27"/>
+    <n v="39"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="54e75fa975"/>
+    <s v="Ella"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="41"/>
+    <n v="52"/>
+    <n v="56"/>
+    <n v="12"/>
+    <n v="23"/>
+    <n v="37"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="505c85eea6"/>
+    <s v="Sonia"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="48"/>
+    <n v="39"/>
+    <n v="32"/>
+    <n v="7"/>
+    <n v="12"/>
+    <n v="17"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="9eac806b76"/>
+    <s v="Noriellie"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="41"/>
+    <n v="32"/>
+    <n v="47"/>
+    <n v="11"/>
+    <s v=" "/>
+    <n v="9"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="545eed3960"/>
+    <s v="Ada"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="19"/>
+    <n v="44"/>
+    <n v="4"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="545eed3960"/>
+    <s v="Ava"/>
+    <s v="44d561d100"/>
+    <s v="Grade 1"/>
+    <n v="24"/>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="1"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="260f7f6892"/>
+    <s v="Benjamin"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="39"/>
+    <n v="49"/>
+    <n v="21"/>
+    <n v="2"/>
+    <s v=" "/>
+    <n v="0"/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="46df606113"/>
+    <s v="Suhaila"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="52"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="13"/>
+    <s v=" "/>
+    <n v="3"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="2f2c0ca5ef"/>
+    <s v="Addison"/>
+    <s v="f8254b80ba"/>
+    <s v="Grade 1"/>
+    <n v="27"/>
+    <n v="45"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="0"/>
+    <s v=" "/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="f3720967a2"/>
+    <s v="Adelina "/>
+    <s v="9e864d0cbe"/>
+    <s v="Grade 1"/>
+    <n v="34"/>
+    <n v="12"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="43990ecd84"/>
+    <s v="Brielle "/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="50"/>
+    <n v="33"/>
+    <n v="76"/>
+    <n v="23"/>
+    <n v="56"/>
+    <n v="82"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="0c511d0640"/>
+    <s v="Xyla"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="33"/>
+    <n v="31"/>
+    <n v="21"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="9"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="72949c4562"/>
+    <s v="Aliya"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="40"/>
+    <n v="29"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c6e8476f7c"/>
+    <s v="Luke"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="64"/>
+    <n v="56"/>
+    <n v="91"/>
+    <n v="29"/>
+    <s v=" "/>
+    <n v="78"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c4e593a1aa"/>
+    <s v="Sophia"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="35"/>
+    <n v="42"/>
+    <n v="73"/>
+    <n v="21"/>
+    <s v=" "/>
+    <n v="56"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="18f2855928"/>
+    <s v="Annalisa"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="34"/>
+    <n v="22"/>
+    <n v="20"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b2bdaaf1af"/>
+    <s v="Emalee"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="35"/>
+    <n v="23"/>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="23"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="96a140a5bd"/>
+    <s v="Rebecca"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="54"/>
+    <n v="58"/>
+    <n v="56"/>
+    <n v="12"/>
+    <s v=" "/>
+    <n v="46"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="1c201bebb8"/>
+    <s v="Jaylana"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="57"/>
+    <n v="33"/>
+    <n v="37"/>
+    <n v="9"/>
+    <s v=" "/>
+    <n v="24"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="41b5d26595"/>
+    <s v="Irvie"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="59"/>
+    <n v="45"/>
+    <n v="72"/>
+    <n v="23"/>
+    <s v=" "/>
+    <n v="18"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c43139196d"/>
+    <s v="Julien"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="33"/>
+    <n v="31"/>
+    <n v="25"/>
+    <n v="1"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="576bbac208"/>
+    <s v="Aiden"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="45"/>
+    <n v="42"/>
+    <n v="36"/>
+    <n v="8"/>
+    <s v=" "/>
+    <n v="17"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="a09948e8f6"/>
+    <s v="Ciara"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="46"/>
+    <n v="44"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="e2120ffdc0"/>
+    <s v="Carly"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="79"/>
+    <n v="55"/>
+    <n v="61"/>
+    <n v="16"/>
+    <s v=" "/>
+    <n v="8"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="e2120ffdc0"/>
+    <s v="Delilah"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="54"/>
+    <n v="66"/>
+    <n v="79"/>
+    <n v="25"/>
+    <s v=" "/>
+    <n v="52"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="5c033324ae"/>
+    <s v="Tomas"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="57"/>
+    <n v="31"/>
+    <n v="50"/>
+    <n v="13"/>
+    <s v=" "/>
+    <n v="15"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c1c6ffa678"/>
+    <s v="Wykeim"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="77"/>
+    <n v="56"/>
+    <n v="74"/>
+    <n v="25"/>
+    <n v="32"/>
+    <n v="51"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="8735f6642f"/>
+    <s v="Arabella"/>
+    <s v="3f4e1220fa"/>
+    <s v="Grade 1"/>
+    <n v="50"/>
+    <n v="24"/>
+    <n v="39"/>
+    <n v="13"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="69aaefefe3"/>
+    <s v="Jordan"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="72"/>
+    <n v="46"/>
+    <n v="50"/>
+    <n v="14"/>
+    <s v=" "/>
+    <n v="24"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="aa79687077"/>
+    <s v="Lucas"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="4b9bb31f12"/>
+    <s v="Salma"/>
+    <s v="148637533b"/>
+    <s v="Grade 1"/>
+    <n v="29"/>
+    <n v="58"/>
+    <n v="34"/>
+    <n v="6"/>
+    <s v=" "/>
+    <n v="2"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="54ff3f4983"/>
+    <s v="Zoriya"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="41"/>
+    <n v="48"/>
+    <n v="28"/>
+    <n v="7"/>
+    <n v="13"/>
+    <n v="4"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="820509626b"/>
+    <s v="Adrian"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="50"/>
+    <n v="31"/>
+    <n v="48"/>
+    <n v="16"/>
+    <n v="33"/>
+    <n v="46"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3be0455d59"/>
+    <s v="Elessia"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="47"/>
+    <n v="37"/>
+    <n v="36"/>
+    <n v="12"/>
+    <s v=" "/>
+    <n v="8"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="bd0d24efe8"/>
+    <s v="Evens"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="63"/>
+    <n v="56"/>
+    <n v="59"/>
+    <n v="13"/>
+    <n v="17"/>
+    <n v="23"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="83e6fefca2"/>
+    <s v="Noemie"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="fb098c65c3"/>
+    <s v="Jayden"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="67"/>
+    <n v="35"/>
+    <n v="32"/>
+    <n v="9"/>
+    <s v=" "/>
+    <n v="20"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="086d20bfb0"/>
+    <s v="Nayla"/>
+    <s v="dd00db39b6"/>
+    <s v="Grade 1"/>
+    <n v="26"/>
+    <n v="2"/>
+    <n v="13"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="3"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="a33ef009be"/>
+    <s v="Imani"/>
+    <s v="32a3eefe78"/>
+    <s v="Grade 1"/>
+    <n v="38"/>
+    <n v="43"/>
+    <n v="30"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="bb384bee64"/>
+    <s v="Resty Reid"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="61"/>
+    <n v="30"/>
+    <n v="76"/>
+    <n v="25"/>
+    <s v=" "/>
+    <n v="62"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d5ff40de1e"/>
+    <s v="Aiden"/>
+    <s v="4dc7f6196e"/>
+    <s v="Grade 1"/>
+    <n v="41"/>
+    <n v="30"/>
+    <n v="21"/>
+    <n v="5"/>
+    <s v=" "/>
+    <n v="21"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="5f38a7b1b4"/>
+    <s v="Yara"/>
+    <n v="230973919"/>
+    <s v="Grade 1"/>
+    <n v="42"/>
+    <n v="37"/>
+    <n v="18"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="9"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="99c8213730"/>
+    <s v="Ife"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="29"/>
+    <n v="30"/>
+    <n v="49"/>
+    <n v="14"/>
+    <s v=" "/>
+    <n v="6"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="bbd3878ab0"/>
+    <s v="Gia"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="42"/>
+    <n v="52"/>
+    <n v="29"/>
+    <n v="9"/>
+    <n v="23"/>
+    <n v="33"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="bbd3878ab0"/>
+    <s v="Valerio"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="78"/>
+    <n v="53"/>
+    <n v="64"/>
+    <n v="18"/>
+    <s v=" "/>
+    <n v="19"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="e2372fcabd"/>
+    <s v="Alan Emiliano"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="28"/>
+    <n v="31"/>
+    <n v="114"/>
+    <n v="37"/>
+    <n v="31"/>
+    <n v="46"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="102bf6903b"/>
+    <s v="Leila"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="45"/>
+    <n v="59"/>
+    <n v="89"/>
+    <n v="28"/>
+    <s v=" "/>
+    <n v="49"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="2c3aaefea8"/>
+    <s v="Niah"/>
+    <s v="8570d682fe"/>
+    <s v="Grade 1"/>
+    <n v="35"/>
+    <n v="47"/>
+    <n v="19"/>
+    <n v="3"/>
+    <s v=" "/>
+    <n v="4"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="82c268188c"/>
+    <s v="Todd"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="60"/>
+    <n v="47"/>
+    <n v="73"/>
+    <n v="24"/>
+    <s v=" "/>
+    <n v="46"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d9e1b51ac9"/>
+    <s v="Noah"/>
+    <s v="978941eaf4"/>
+    <s v="Grade 1"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="aeac96caeb"/>
+    <s v="Dylan"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="33"/>
+    <n v="15"/>
+    <n v="23"/>
+    <n v="3"/>
+    <s v=" "/>
+    <n v="48"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="11a4f480c4"/>
+    <s v="Cru'"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="39"/>
+    <n v="47"/>
+    <n v="54"/>
+    <n v="14"/>
+    <s v=" "/>
+    <n v="41"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="88ba8a4d8a"/>
+    <s v="Daphne"/>
+    <s v="49287e864b"/>
+    <s v="Grade 1"/>
+    <n v="35"/>
+    <n v="38"/>
+    <n v="26"/>
+    <n v="4"/>
+    <s v=" "/>
+    <n v="10"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="d4f4f55cc0"/>
+    <s v="Lucas"/>
+    <s v="8f48f10a64"/>
+    <s v="Grade 1"/>
+    <n v="30"/>
+    <n v="27"/>
+    <n v="19"/>
+    <n v="3"/>
+    <s v=" "/>
+    <n v="11"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="90d893a0fc"/>
+    <s v="Danielle"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="30"/>
+    <n v="26"/>
+    <n v="30"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="4"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="8fd446866f"/>
+    <s v="Lucas"/>
+    <s v="7b9e7baad4"/>
+    <s v="Grade 1"/>
+    <n v="38"/>
+    <n v="4"/>
+    <n v="18"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d3fd391992"/>
+    <s v="William"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="50"/>
+    <n v="31"/>
+    <n v="39"/>
+    <n v="13"/>
+    <n v="50"/>
+    <n v="87"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="02ab1a994b"/>
+    <s v="Zohan"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="57"/>
+    <n v="40"/>
+    <n v="34"/>
+    <n v="10"/>
+    <n v="18"/>
+    <n v="28"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="fa5e5950af"/>
+    <s v="Noelle"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="54"/>
+    <n v="49"/>
+    <n v="58"/>
+    <n v="17"/>
+    <n v="38"/>
+    <n v="57"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="e34e02a8d1"/>
+    <s v="Ulani"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="63"/>
+    <n v="35"/>
+    <n v="67"/>
+    <n v="22"/>
+    <s v=" "/>
+    <n v="54"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="dcd5b5f707"/>
+    <s v="Abigail"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="35"/>
+    <n v="23"/>
+    <n v="74"/>
+    <n v="21"/>
+    <n v="60"/>
+    <n v="89"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="361fd0fcbc"/>
+    <s v="Michael "/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="63"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="15"/>
+    <n v="40"/>
+    <n v="63"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3013b18f43"/>
+    <s v="Amani"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="49"/>
+    <n v="31"/>
+    <n v="16"/>
+    <n v="3"/>
+    <s v=" "/>
+    <n v="11"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="fe16a94194"/>
+    <s v="Laila"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="45"/>
+    <n v="40"/>
+    <n v="45"/>
+    <n v="14"/>
+    <n v="27"/>
+    <n v="44"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="78a1a1dae4"/>
+    <s v="Theo"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="51"/>
+    <n v="54"/>
+    <n v="81"/>
+    <n v="26"/>
+    <s v=" "/>
+    <n v="64"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="89549001cf"/>
+    <s v="Zahra"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="62"/>
+    <n v="37"/>
+    <n v="52"/>
+    <n v="15"/>
+    <n v="14"/>
+    <n v="32"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="db169595e3"/>
+    <s v="Grace"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="61"/>
+    <n v="57"/>
+    <n v="69"/>
+    <n v="19"/>
+    <s v=" "/>
+    <n v="35"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="58de53382c"/>
+    <s v="Xane"/>
+    <s v="ed57469f43"/>
+    <s v="Grade 1"/>
+    <n v="24"/>
+    <n v="29"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c131f1441e"/>
+    <s v="Lincoln"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="32"/>
+    <n v="45"/>
+    <n v="31"/>
+    <n v="9"/>
+    <s v=" "/>
+    <n v="0"/>
+    <s v=" "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="7e7c621a30"/>
+    <s v="Tisang"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="37"/>
+    <n v="41"/>
+    <n v="68"/>
+    <n v="17"/>
+    <n v="34"/>
+    <n v="50"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d09b169d8d"/>
+    <s v="Guerschom"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="a2fbc754b9"/>
+    <s v="Daisy"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="51"/>
+    <n v="48"/>
+    <n v="85"/>
+    <n v="28"/>
+    <s v=" "/>
+    <n v="122"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d544b8423a"/>
+    <s v="Kiamarly"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="49"/>
+    <n v="19"/>
+    <n v="13"/>
+    <n v="3"/>
+    <s v=" "/>
+    <n v="109"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="ebf366398b"/>
+    <s v="Francis"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="43"/>
+    <n v="32"/>
+    <n v="30"/>
+    <n v="6"/>
+    <s v=" "/>
+    <n v="3"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="8d9cd6ee11"/>
+    <s v="Hadassah"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="34"/>
+    <n v="58"/>
+    <n v="16"/>
+    <n v="11"/>
+    <n v="6"/>
+    <n v="12"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b0eeeccaef"/>
+    <s v="Miguel"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="28"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="0432f342a6"/>
+    <s v="Lisa"/>
+    <s v="5ddbe850c7"/>
+    <s v="Grade 1"/>
+    <n v="26"/>
+    <n v="28"/>
+    <n v="36"/>
+    <n v="5"/>
+    <s v=" "/>
+    <n v="6"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3ac8cab7ed"/>
+    <s v="Lianna"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="31"/>
+    <n v="36"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="0cd8d6694b"/>
+    <s v="Mariana"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="52"/>
+    <n v="48"/>
+    <n v="37"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="5"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="0a5e7f1bd6"/>
+    <s v="Zahara"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="49"/>
+    <n v="44"/>
+    <n v="39"/>
+    <n v="7"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="459a44d094"/>
+    <s v="Iziah"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="34"/>
+    <n v="15"/>
+    <n v="24"/>
+    <n v="8"/>
+    <s v=" "/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6135934f23"/>
+    <s v="Kennedi"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="34"/>
+    <n v="38"/>
+    <n v="19"/>
+    <n v="3"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="ffc0ea2e03"/>
+    <s v="Kadmiel"/>
+    <s v="882eb090e9"/>
+    <s v="Grade 1"/>
+    <n v="21"/>
+    <n v="13"/>
+    <n v="7"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="39d3a2e969"/>
+    <s v="Austin"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="57"/>
+    <n v="37"/>
+    <n v="28"/>
+    <n v="8"/>
+    <s v=" "/>
+    <n v="12"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="ecfaae65c0"/>
+    <s v="Layla"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="61"/>
+    <n v="56"/>
+    <n v="50"/>
+    <n v="16"/>
+    <s v=" "/>
+    <n v="57"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="597d0dd6aa"/>
+    <s v="Elizabeth"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="37"/>
+    <n v="43"/>
+    <n v="32"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="16"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="fc519f1a34"/>
+    <s v="Giselle"/>
+    <s v="643ba45fde"/>
+    <s v="Grade 1"/>
+    <n v="48"/>
+    <n v="34"/>
+    <n v="33"/>
+    <n v="4"/>
+    <s v=" "/>
+    <n v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="89f1e45c16"/>
+    <s v="Zavion "/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="100"/>
+    <n v="74"/>
+    <n v="106"/>
+    <n v="31"/>
+    <n v="70"/>
+    <n v="109"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="426a921599"/>
+    <s v="Sofia Iman"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="52"/>
+    <n v="46"/>
+    <n v="37"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="18"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="71fc8c75a5"/>
+    <s v="Justin"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="53"/>
+    <n v="32"/>
+    <n v="174"/>
+    <n v="58"/>
+    <s v=" "/>
+    <n v="104"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="385cdb1e53"/>
+    <s v="Eveline"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="42"/>
+    <n v="50"/>
+    <n v="41"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="9befa3c632"/>
+    <s v="Raheim"/>
+    <s v="af62c205c1"/>
+    <s v="Grade 1"/>
+    <n v="40"/>
+    <n v="12"/>
+    <n v="23"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2718402008"/>
+    <s v="Quba"/>
+    <s v="65e57b20c9"/>
+    <s v="Grade 1"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="edca4c8901"/>
+    <s v="Nikte"/>
+    <s v="568210e4cc"/>
+    <s v="Grade 1"/>
+    <n v="34"/>
+    <n v="18"/>
+    <n v="19"/>
+    <n v="6"/>
+    <s v=" "/>
+    <n v="2"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6f005a1868"/>
+    <s v="Liam"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="40"/>
+    <n v="23"/>
+    <n v="25"/>
+    <n v="5"/>
+    <s v=" "/>
+    <n v="11"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="cfbfc4ba0d"/>
+    <s v="Fernanda"/>
+    <s v="21dcab6892"/>
+    <s v="Grade 1"/>
+    <n v="54"/>
+    <n v="11"/>
+    <n v="32"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="58"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="213c4d2db0"/>
+    <s v="Aubriella"/>
+    <s v="fad5052cbf"/>
+    <s v="Grade 1"/>
+    <n v="50"/>
+    <n v="24"/>
+    <n v="30"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="213c4d2db0"/>
+    <s v="Claire"/>
+    <s v="1a310e201f"/>
+    <s v="Grade 1"/>
+    <n v="28"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="2"/>
+    <s v=" "/>
+    <n v="7"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="213c4d2db0"/>
+    <s v="Donald"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="71"/>
+    <n v="52"/>
+    <n v="92"/>
+    <n v="26"/>
+    <s v=" "/>
+    <n v="63"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="213c4d2db0"/>
+    <s v="Ethan"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="67"/>
+    <n v="35"/>
+    <n v="116"/>
+    <n v="39"/>
+    <n v="55"/>
+    <n v="82"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="213c4d2db0"/>
+    <s v="Hoang"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="57"/>
+    <n v="38"/>
+    <n v="30"/>
+    <n v="9"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="213c4d2db0"/>
+    <s v="Justin"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="52"/>
+    <n v="42"/>
+    <n v="35"/>
+    <n v="13"/>
+    <s v=" "/>
+    <n v="42"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="2c6794c28d"/>
+    <s v="Jayla"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="32"/>
+    <n v="41"/>
+    <n v="27"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="37672c9ad4"/>
+    <s v="Zora"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="61"/>
+    <n v="26"/>
+    <n v="55"/>
+    <n v="17"/>
+    <s v=" "/>
+    <n v="59"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="4b38640969"/>
+    <s v="Lauralie"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="1"/>
+    <s v=" "/>
+    <n v="3"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="91ec94e00b"/>
+    <s v="Henry"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="45"/>
+    <n v="56"/>
+    <n v="45"/>
+    <n v="13"/>
+    <s v=" "/>
+    <n v="10"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="61a1936a45"/>
+    <s v="Amarachi"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="46"/>
+    <n v="25"/>
+    <n v="24"/>
+    <n v="4"/>
+    <s v=" "/>
+    <n v="4"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="0a30a815d6"/>
+    <s v="Gayelle"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="37"/>
+    <n v="40"/>
+    <n v="31"/>
+    <n v="5"/>
+    <s v=" "/>
+    <n v="27"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="3ce9aefcb8"/>
+    <s v="Liam"/>
+    <s v="32b8d2a23d"/>
+    <s v="Grade 1"/>
+    <n v="36"/>
+    <n v="32"/>
+    <n v="15"/>
+    <n v="4"/>
+    <n v="11"/>
+    <n v="8"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="36b1893751"/>
+    <s v="Eva"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="25"/>
+    <n v="24"/>
+    <n v="25"/>
+    <n v="6"/>
+    <s v=" "/>
+    <n v="4"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="7b2bcdbab3"/>
+    <s v="Milliani "/>
+    <s v="e393f51b10"/>
+    <s v="Grade 1"/>
+    <n v="5"/>
+    <n v="27"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="54269f7f53"/>
+    <s v="Adriell"/>
+    <s v="1d03fa46bf"/>
+    <s v="Grade 1"/>
+    <n v="39"/>
+    <n v="39"/>
+    <n v="30"/>
+    <n v="4"/>
+    <s v=" "/>
+    <n v="2"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="09cba0b011"/>
+    <s v="Nathan"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="43"/>
+    <n v="24"/>
+    <n v="23"/>
+    <n v="7"/>
+    <s v=" "/>
+    <n v="12"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="79e79dd33b"/>
+    <s v="Amparo"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="21"/>
+    <n v="40"/>
+    <n v="31"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b30445c2eb"/>
+    <s v="Jarrod"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="62"/>
+    <n v="35"/>
+    <n v="28"/>
+    <n v="6"/>
+    <s v=" "/>
+    <n v="9"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="09be5e34d0"/>
+    <s v="Carter"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="53"/>
+    <n v="35"/>
+    <n v="41"/>
+    <n v="11"/>
+    <s v=" "/>
+    <n v="4"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="a15ece6783"/>
+    <s v="Evelyn"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="46"/>
+    <n v="32"/>
+    <n v="26"/>
+    <n v="7"/>
+    <s v=" "/>
+    <n v="46"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="775fd68935"/>
+    <s v="Sebastian"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="73"/>
+    <n v="30"/>
+    <n v="72"/>
+    <n v="21"/>
+    <n v="32"/>
+    <n v="51"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="c008be7683"/>
+    <s v="GaelleLinda"/>
+    <n v="1462154994"/>
+    <s v="Grade 1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="235fe39352"/>
+    <s v="Dionna"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="43"/>
+    <n v="47"/>
+    <n v="102"/>
+    <n v="33"/>
+    <n v="54"/>
+    <n v="72"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="aca920e76e"/>
+    <s v="Analia"/>
+    <s v="dd0c8d7900"/>
+    <s v="Grade 1"/>
+    <n v="33"/>
+    <n v="24"/>
+    <n v="13"/>
+    <n v="3"/>
+    <s v=" "/>
+    <n v="4"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="2deca88b1e"/>
+    <s v="Levi"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6cc87e8065"/>
+    <s v="Vidian"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="56"/>
+    <n v="16"/>
+    <n v="32"/>
+    <n v="7"/>
+    <n v="20"/>
+    <n v="36"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="abea5ba314"/>
+    <s v="Jhamir"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="68"/>
+    <n v="39"/>
+    <n v="63"/>
+    <n v="16"/>
+    <s v=" "/>
+    <n v="33"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="3f822cbc28"/>
+    <s v="Zendaya"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="53"/>
+    <n v="38"/>
+    <n v="46"/>
+    <n v="14"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="09db1a1b3e"/>
+    <s v="Kalia"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="60"/>
+    <n v="57"/>
+    <n v="59"/>
+    <n v="9"/>
+    <s v=" "/>
+    <n v="31"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="312a977a28"/>
+    <s v="Remy"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="24"/>
+    <n v="14"/>
+    <n v="9"/>
+    <n v="4"/>
+    <s v=" "/>
+    <n v="16"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6e628f7b1d"/>
+    <s v="Edmond"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="54"/>
+    <n v="32"/>
+    <n v="31"/>
+    <n v="7"/>
+    <s v=" "/>
+    <n v="25"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6e628f7b1d"/>
+    <s v="Liam"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="46"/>
+    <n v="14"/>
+    <n v="9"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="e42df0232d"/>
+    <s v="Camila"/>
+    <s v="3757a839f8"/>
+    <s v="Grade 1"/>
+    <n v="46"/>
+    <n v="45"/>
+    <n v="36"/>
+    <n v="5"/>
+    <s v=" "/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="0536d4e1f5"/>
+    <s v="Violet"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="43"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="2ca4bd7472"/>
+    <s v="Ezekiel"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="44"/>
+    <n v="24"/>
+    <n v="20"/>
+    <n v="2"/>
+    <s v=" "/>
+    <n v="9"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="3495e75785"/>
+    <s v="Kiley"/>
+    <s v="28c4df4709"/>
+    <s v="Grade 1"/>
+    <n v="23"/>
+    <n v="40"/>
+    <n v="18"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="9"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="adaf581080"/>
+    <s v="Lillian"/>
+    <s v="251851f415"/>
+    <s v="Grade 1"/>
+    <n v="23"/>
+    <n v="33"/>
+    <n v="18"/>
+    <n v="0"/>
+    <s v=" "/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6e8d8801f5"/>
+    <s v="Jaxson"/>
+    <s v="7526c6e7e9"/>
+    <s v="Grade 1"/>
+    <n v="18"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96A793F7-59D5-4A7E-9D95-B375B8343087}" name="PivotTable77" cacheId="151" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:I9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <dataFields count="8">
+    <dataField name="Count of student_id" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Average of lnf" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of psf" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of nwf-cls" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of nwf-wrc" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of wrf" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of orf" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of orf-accu" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9847,7 +12861,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10030,31 +13044,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.97486188171472177</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10090,48 +13103,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>0.53061323978528685</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.28155041023543836</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0.27792187695379916</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>14.541251229642947</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>200</v>
       </c>
     </row>
@@ -10141,161 +13154,159 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>494</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>16406.978509928653</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>16406.978509928653</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>77.593448476858725</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>6.3993890281741811E-16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>495</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>198</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>41866.701490071318</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>211.44798732359251</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>199</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>58273.679999999971</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>497</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>23.42920517825911</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>2.1398648356532797</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>10.948918262450164</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>4.0481813362655973E-22</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>19.209354322143525</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>27.649056034374695</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>19.209354322143525</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>27.649056034374695</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.52687792260528732</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>5.981326011366251E-2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>8.8087143486923587</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>6.3993890281745055E-16</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.40892512825477556</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.64483071695579908</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.40892512825477556</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>0.64483071695579908</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
+      <c r="E22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10373,10 +13384,10 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -10392,10 +13403,10 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>0.75147609879874577</v>
       </c>
       <c r="F5" s="1"/>
@@ -10413,10 +13424,10 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="1">
         <v>0.56471632706578234</v>
       </c>
       <c r="F6" s="1"/>
@@ -10434,10 +13445,10 @@
       <c r="B7" s="1">
         <v>52</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="1">
         <v>0.56244922460258329</v>
       </c>
       <c r="F7" s="1"/>
@@ -10455,10 +13466,10 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>18.108377564214869</v>
       </c>
       <c r="F8" s="1"/>
@@ -10476,10 +13487,10 @@
       <c r="B9" s="1">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>194</v>
       </c>
       <c r="F9" s="1"/>
@@ -10533,20 +13544,20 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>502</v>
       </c>
       <c r="J12" s="1"/>
@@ -10560,22 +13571,22 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="1">
         <v>81680.479308618815</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="1">
         <v>81680.479308618815</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="1">
         <v>249.09166490381099</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="1">
         <v>1.6004720925990658E-36</v>
       </c>
       <c r="J13" s="1"/>
@@ -10589,20 +13600,20 @@
       <c r="B14" s="1">
         <v>35</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="1">
         <v>192</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="1">
         <v>62959.360897566803</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="1">
         <v>327.91333800816045</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -10614,18 +13625,18 @@
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>193</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>144639.84020618562</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -10654,29 +13665,29 @@
       <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10687,31 +13698,31 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="1">
         <v>19.271618784041831</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="1">
         <v>1.5975044225447739</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="1">
         <v>12.063577735417317</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="1">
         <v>2.6208337337702768E-25</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="1">
         <v>16.120706666153392</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="1">
         <v>22.422530901930269</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="1">
         <v>16.120706666153392</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="1">
         <v>22.422530901930269</v>
       </c>
     </row>
@@ -10722,31 +13733,31 @@
       <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>0.8024579209192223</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>5.084434659319307E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <v>15.782638084420848</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="8">
         <v>1.6004720925989292E-36</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <v>0.70217271009557491</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="8">
         <v>0.90274313174286969</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="8">
         <v>0.70217271009557491</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <v>0.90274313174286969</v>
       </c>
     </row>
@@ -12165,11 +15176,471 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4850CE4C-A70A-4AF5-9DA3-D2F58FC960FC}">
+  <dimension ref="A3:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11">
+        <v>25.833333333333332</v>
+      </c>
+      <c r="D4" s="11">
+        <v>23.5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="H4" s="11">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="I4" s="11">
+        <v>23.833333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43</v>
+      </c>
+      <c r="E5" s="11">
+        <v>30</v>
+      </c>
+      <c r="F5" s="11">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="11">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>35.777777777777779</v>
+      </c>
+      <c r="D6" s="11">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11">
+        <v>20.555555555555557</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5.1111111111111107</v>
+      </c>
+      <c r="I6" s="11">
+        <v>30.888888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D7" s="11">
+        <v>29.2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>23.5</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11">
+        <v>26.444444444444443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="11">
+        <v>174</v>
+      </c>
+      <c r="C8" s="11">
+        <v>40.948275862068968</v>
+      </c>
+      <c r="D8" s="11">
+        <v>32.189655172413794</v>
+      </c>
+      <c r="E8" s="11">
+        <v>35.408045977011497</v>
+      </c>
+      <c r="F8" s="11">
+        <v>8.7413793103448274</v>
+      </c>
+      <c r="G8" s="11">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11">
+        <v>20.301775147928993</v>
+      </c>
+      <c r="I8" s="11">
+        <v>46.024242424242424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="11">
+        <v>200</v>
+      </c>
+      <c r="C9" s="11">
+        <v>39.96</v>
+      </c>
+      <c r="D9" s="11">
+        <v>31.375</v>
+      </c>
+      <c r="E9" s="11">
+        <v>33.43</v>
+      </c>
+      <c r="F9" s="11">
+        <v>8.0649999999999995</v>
+      </c>
+      <c r="G9" s="11">
+        <v>12.269565217391305</v>
+      </c>
+      <c r="H9" s="11">
+        <v>18.257731958762886</v>
+      </c>
+      <c r="I9" s="11">
+        <v>43.578947368421055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13">
+        <v>25.833333333333332</v>
+      </c>
+      <c r="D13" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="E13" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G13" s="13">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="H13" s="13">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="I13" s="13">
+        <v>23.833333333333332</v>
+      </c>
+      <c r="K13" s="12">
+        <f>AVERAGE(C13:I13)</f>
+        <v>13.928571428571427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>38</v>
+      </c>
+      <c r="D14" s="13">
+        <v>43</v>
+      </c>
+      <c r="E14" s="13">
+        <v>30</v>
+      </c>
+      <c r="F14" s="13">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13">
+        <v>3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
+      <c r="I14" s="13">
+        <v>27</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" ref="K14:K16" si="0">AVERAGE(C14:I14)</f>
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13">
+        <v>35.777777777777779</v>
+      </c>
+      <c r="D15" s="13">
+        <v>22</v>
+      </c>
+      <c r="E15" s="13">
+        <v>20.555555555555557</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>5.1111111111111107</v>
+      </c>
+      <c r="I15" s="13">
+        <v>30.888888888888889</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="0"/>
+        <v>16.761904761904763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="13">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D16" s="13">
+        <v>29.2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="F16" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="G16" s="13">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4</v>
+      </c>
+      <c r="I16" s="13">
+        <v>26.444444444444443</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="0"/>
+        <v>18.187301587301587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="1">
+        <v>174</v>
+      </c>
+      <c r="C17" s="13">
+        <v>40.948275862068968</v>
+      </c>
+      <c r="D17" s="13">
+        <v>32.189655172413794</v>
+      </c>
+      <c r="E17" s="13">
+        <v>35.408045977011497</v>
+      </c>
+      <c r="F17" s="13">
+        <v>8.7413793103448274</v>
+      </c>
+      <c r="G17" s="13">
+        <v>13</v>
+      </c>
+      <c r="H17" s="13">
+        <v>20.301775147928993</v>
+      </c>
+      <c r="I17" s="13">
+        <v>46.024242424242424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="12">
+        <f>AVERAGE(C13:C17)</f>
+        <v>35.151877394636017</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:I19" si="1">AVERAGE(D13:D17)</f>
+        <v>29.977931034482758</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="1"/>
+        <v>24.392720306513411</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>4.9416091954022985</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
+        <v>7.3492439184746869</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>30.838181818181816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850BD03B-F8F4-4095-9AB8-DF597EBB52A3}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12227,7 +15698,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -12263,7 +15736,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -12299,7 +15774,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -12335,7 +15812,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12371,7 +15850,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -12407,7 +15888,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
@@ -12443,7 +15926,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
@@ -12479,7 +15964,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -12515,7 +16002,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
@@ -12551,7 +16040,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -12587,7 +16078,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -12623,7 +16116,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
@@ -12659,7 +16154,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -12695,7 +16192,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
@@ -12731,7 +16230,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
@@ -12767,7 +16268,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
@@ -12803,7 +16306,9 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B18" s="1">
         <v>434567788</v>
       </c>
@@ -12839,7 +16344,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
@@ -12875,7 +16382,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B20" s="1">
         <v>3036230609</v>
       </c>
@@ -12911,7 +16420,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>69</v>
       </c>
@@ -12947,7 +16458,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
@@ -12983,7 +16496,9 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
@@ -13019,7 +16534,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
@@ -13055,7 +16572,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
@@ -13091,7 +16610,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
@@ -13127,7 +16648,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
@@ -13163,7 +16686,9 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>90</v>
       </c>
@@ -13199,7 +16724,9 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>93</v>
       </c>
@@ -13235,7 +16762,9 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>95</v>
       </c>
@@ -13271,7 +16800,9 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>98</v>
       </c>
@@ -13307,7 +16838,9 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>101</v>
       </c>
@@ -13343,7 +16876,9 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>104</v>
       </c>
@@ -13379,7 +16914,9 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>107</v>
       </c>
@@ -13415,7 +16952,9 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>110</v>
       </c>
@@ -13451,7 +16990,9 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>113</v>
       </c>
@@ -13487,7 +17028,9 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>116</v>
       </c>
@@ -13523,7 +17066,9 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>119</v>
       </c>
@@ -13559,7 +17104,9 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>122</v>
       </c>
@@ -13595,7 +17142,9 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
@@ -13631,7 +17180,9 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>128</v>
       </c>
@@ -13667,7 +17218,9 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>131</v>
       </c>
@@ -13703,7 +17256,9 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>134</v>
       </c>
@@ -13739,7 +17294,9 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>137</v>
       </c>
@@ -13775,7 +17332,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>140</v>
       </c>
@@ -13811,7 +17370,9 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>143</v>
       </c>
@@ -13847,7 +17408,9 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>146</v>
       </c>
@@ -13883,7 +17446,9 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>149</v>
       </c>
@@ -13919,7 +17484,9 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>152</v>
       </c>
@@ -13955,7 +17522,9 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>155</v>
       </c>
@@ -13991,7 +17560,9 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>158</v>
       </c>
@@ -14027,7 +17598,9 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>161</v>
       </c>
@@ -14063,7 +17636,9 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>163</v>
       </c>
@@ -14099,7 +17674,9 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>166</v>
       </c>
@@ -14135,7 +17712,9 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>169</v>
       </c>
@@ -14171,7 +17750,9 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>172</v>
       </c>
@@ -14207,7 +17788,9 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>175</v>
       </c>
@@ -14243,7 +17826,9 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>178</v>
       </c>
@@ -14279,7 +17864,9 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>181</v>
       </c>
@@ -14315,7 +17902,9 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>184</v>
       </c>
@@ -14351,7 +17940,9 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>187</v>
       </c>
@@ -14387,7 +17978,9 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>190</v>
       </c>
@@ -14423,7 +18016,9 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>193</v>
       </c>
@@ -14459,7 +18054,9 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>196</v>
       </c>
@@ -14495,7 +18092,9 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>199</v>
       </c>
@@ -14531,7 +18130,9 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B66" s="1">
         <v>3036230609</v>
       </c>
@@ -14567,7 +18168,9 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -14603,7 +18206,9 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -14639,7 +18244,9 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>210</v>
       </c>
@@ -14675,7 +18282,9 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>212</v>
       </c>
@@ -14711,7 +18320,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>214</v>
       </c>
@@ -14785,7 +18396,9 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>219</v>
       </c>
@@ -14821,7 +18434,9 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>220</v>
       </c>
@@ -14895,7 +18510,9 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>225</v>
       </c>
@@ -14931,7 +18548,9 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>228</v>
       </c>
@@ -14967,7 +18586,9 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>230</v>
       </c>
@@ -15003,7 +18624,9 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>232</v>
       </c>
@@ -15039,7 +18662,9 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>234</v>
       </c>
@@ -15075,7 +18700,9 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>236</v>
       </c>
@@ -15111,7 +18738,9 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>238</v>
       </c>
@@ -15147,7 +18776,9 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>240</v>
       </c>
@@ -15183,7 +18814,9 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>242</v>
       </c>
@@ -15219,7 +18852,9 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>244</v>
       </c>
@@ -15255,7 +18890,9 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>246</v>
       </c>
@@ -15291,7 +18928,9 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>248</v>
       </c>
@@ -15327,7 +18966,9 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>250</v>
       </c>
@@ -15363,7 +19004,9 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>251</v>
       </c>
@@ -15399,7 +19042,9 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>253</v>
       </c>
@@ -15435,7 +19080,9 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>253</v>
       </c>
@@ -15471,7 +19118,9 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>255</v>
       </c>
@@ -15507,7 +19156,9 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>257</v>
       </c>
@@ -15581,7 +19232,9 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>262</v>
       </c>
@@ -15617,7 +19270,9 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>264</v>
       </c>
@@ -15691,7 +19346,9 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>269</v>
       </c>
@@ -15727,7 +19384,9 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>271</v>
       </c>
@@ -15763,7 +19422,9 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>273</v>
       </c>
@@ -15799,7 +19460,9 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>275</v>
       </c>
@@ -15835,7 +19498,9 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>277</v>
       </c>
@@ -15871,7 +19536,9 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>279</v>
       </c>
@@ -15983,7 +19650,9 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>289</v>
       </c>
@@ -16095,7 +19764,9 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>296</v>
       </c>
@@ -16131,7 +19802,9 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>298</v>
       </c>
@@ -16167,7 +19840,9 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>298</v>
       </c>
@@ -16203,7 +19878,9 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>301</v>
       </c>
@@ -16239,7 +19916,9 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>303</v>
       </c>
@@ -16313,7 +19992,9 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>307</v>
       </c>
@@ -16349,7 +20030,9 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>309</v>
       </c>
@@ -16385,7 +20068,9 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>311</v>
       </c>
@@ -16421,7 +20106,9 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>313</v>
       </c>
@@ -16533,7 +20220,9 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>320</v>
       </c>
@@ -16607,7 +20296,9 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B123" s="1" t="s">
         <v>324</v>
       </c>
@@ -16643,7 +20334,9 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B124" s="1" t="s">
         <v>326</v>
       </c>
@@ -16679,7 +20372,9 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B125" s="1" t="s">
         <v>328</v>
       </c>
@@ -16715,7 +20410,9 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B126" s="1" t="s">
         <v>330</v>
       </c>
@@ -16751,7 +20448,9 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B127" s="1" t="s">
         <v>332</v>
       </c>
@@ -16787,7 +20486,9 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B128" s="1" t="s">
         <v>334</v>
       </c>
@@ -16823,7 +20524,9 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B129" s="1" t="s">
         <v>336</v>
       </c>
@@ -16859,7 +20562,9 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>338</v>
       </c>
@@ -16895,7 +20600,9 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B131" s="1" t="s">
         <v>107</v>
       </c>
@@ -16931,7 +20638,9 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>341</v>
       </c>
@@ -16967,7 +20676,9 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B133" s="1" t="s">
         <v>343</v>
       </c>
@@ -17041,7 +20752,9 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B135" s="1" t="s">
         <v>348</v>
       </c>
@@ -17077,7 +20790,9 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B136" s="1" t="s">
         <v>350</v>
       </c>
@@ -17113,7 +20828,9 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B137" s="1" t="s">
         <v>352</v>
       </c>
@@ -17149,7 +20866,9 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B138" s="1" t="s">
         <v>354</v>
       </c>
@@ -17185,7 +20904,9 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B139" s="1" t="s">
         <v>356</v>
       </c>
@@ -17221,7 +20942,9 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B140" s="1" t="s">
         <v>358</v>
       </c>
@@ -17257,7 +20980,9 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>360</v>
       </c>
@@ -17293,7 +21018,9 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B142" s="1" t="s">
         <v>362</v>
       </c>
@@ -17329,7 +21056,9 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B143" s="1" t="s">
         <v>364</v>
       </c>
@@ -17365,7 +21094,9 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B144" s="1" t="s">
         <v>367</v>
       </c>
@@ -17401,7 +21132,9 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B145" s="1" t="s">
         <v>369</v>
       </c>
@@ -17437,7 +21170,9 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B146" s="1" t="s">
         <v>371</v>
       </c>
@@ -17473,7 +21208,9 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B147" s="1" t="s">
         <v>373</v>
       </c>
@@ -17509,7 +21246,9 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B148" s="1" t="s">
         <v>375</v>
       </c>
@@ -17583,7 +21322,9 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B150" s="1" t="s">
         <v>380</v>
       </c>
@@ -17619,7 +21360,9 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B151" s="1" t="s">
         <v>382</v>
       </c>
@@ -17655,7 +21398,9 @@
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B152" s="1" t="s">
         <v>384</v>
       </c>
@@ -17729,7 +21474,9 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B154" s="1" t="s">
         <v>389</v>
       </c>
@@ -17765,7 +21512,9 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B155" s="1" t="s">
         <v>391</v>
       </c>
@@ -17801,7 +21550,9 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B156" s="1" t="s">
         <v>393</v>
       </c>
@@ -17837,7 +21588,9 @@
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B157" s="1" t="s">
         <v>395</v>
       </c>
@@ -17987,7 +21740,9 @@
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>405</v>
       </c>
@@ -18023,7 +21778,9 @@
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B162" s="1" t="s">
         <v>407</v>
       </c>
@@ -18135,7 +21892,9 @@
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B165" s="1" t="s">
         <v>110</v>
       </c>
@@ -18171,7 +21930,9 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B166" s="1" t="s">
         <v>110</v>
       </c>
@@ -18207,7 +21968,9 @@
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B167" s="1" t="s">
         <v>110</v>
       </c>
@@ -18243,7 +22006,9 @@
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B168" s="1" t="s">
         <v>110</v>
       </c>
@@ -18279,7 +22044,9 @@
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B169" s="1" t="s">
         <v>417</v>
       </c>
@@ -18315,7 +22082,9 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B170" s="1" t="s">
         <v>419</v>
       </c>
@@ -18351,7 +22120,9 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B171" s="1" t="s">
         <v>421</v>
       </c>
@@ -18387,7 +22158,9 @@
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B172" s="1" t="s">
         <v>423</v>
       </c>
@@ -18423,7 +22196,9 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B173" s="1" t="s">
         <v>425</v>
       </c>
@@ -18459,7 +22234,9 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B174" s="1" t="s">
         <v>427</v>
       </c>
@@ -18533,7 +22310,9 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B176" s="1" t="s">
         <v>430</v>
       </c>
@@ -18569,7 +22348,9 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B177" s="1" t="s">
         <v>432</v>
       </c>
@@ -18643,7 +22424,9 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B179" s="1" t="s">
         <v>438</v>
       </c>
@@ -18679,7 +22462,9 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B180" s="1" t="s">
         <v>439</v>
       </c>
@@ -18715,7 +22500,9 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B181" s="1" t="s">
         <v>441</v>
       </c>
@@ -18751,7 +22538,9 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B182" s="1" t="s">
         <v>443</v>
       </c>
@@ -18787,7 +22576,9 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B183" s="1" t="s">
         <v>445</v>
       </c>
@@ -18823,7 +22614,9 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B184" s="1" t="s">
         <v>447</v>
       </c>
@@ -18897,7 +22690,9 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B186" s="1" t="s">
         <v>451</v>
       </c>
@@ -18971,7 +22766,9 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B188" s="1" t="s">
         <v>456</v>
       </c>
@@ -19007,7 +22804,9 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B189" s="1" t="s">
         <v>458</v>
       </c>
@@ -19043,7 +22842,9 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B190" s="1" t="s">
         <v>460</v>
       </c>
@@ -19079,7 +22880,9 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B191" s="1" t="s">
         <v>462</v>
       </c>
@@ -19115,7 +22918,9 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B192" s="1" t="s">
         <v>464</v>
       </c>
@@ -19151,7 +22956,9 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B193" s="1" t="s">
         <v>466</v>
       </c>
@@ -19187,7 +22994,9 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B194" s="2" t="s">
         <v>104</v>
       </c>
@@ -19223,7 +23032,9 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B195" s="2" t="s">
         <v>104</v>
       </c>
@@ -19297,7 +23108,9 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B197" s="1" t="s">
         <v>472</v>
       </c>
@@ -19333,7 +23146,9 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B198" s="1" t="s">
         <v>474</v>
       </c>
@@ -19407,7 +23222,9 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>478</v>
       </c>
@@ -19443,7 +23260,9 @@
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B201" s="1" t="s">
         <v>169</v>
       </c>
@@ -19479,16 +23298,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L201" xr:uid="{850BD03B-F8F4-4095-9AB8-DF597EBB52A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049891DB-5F5D-46C3-8C07-4CD343D55C8E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
